--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-406899.6364232767</v>
+        <v>-409388.3754527933</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>300.9887210110791</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>148.6546756168597</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>244.398660403637</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>335.0407899533215</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>20.90504049871113</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>81.4608434426853</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,19 +896,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>201.9110522857325</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>115.7489098132463</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -953,7 +953,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>6.486563521725142</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>105.8075447817137</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>190.5958681703719</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>31.41582219992044</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>10.8048796257292</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>5.38606294816181</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>66.09841665934276</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>4.444394634328862</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>51.365697403105</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856421</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892453</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>44.30292280757501</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>36.86080948088116</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>96.36494467178768</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>63.84155641259323</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>80.88538973874932</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,19 +2530,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>106.8299898147636</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>201.7490817309711</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444133</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>22.65115569188744</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>63.8415564125923</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>128.3548363691463</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>65.25773758188275</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>188.013428794602</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3427,13 +3427,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.52295781333198</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,13 +3481,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>19.67525987919283</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>206.5509998577711</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545298</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1977.407367302545</v>
+        <v>1879.378721868776</v>
       </c>
       <c r="C2" t="n">
-        <v>1673.378356180242</v>
+        <v>1510.416204928364</v>
       </c>
       <c r="D2" t="n">
-        <v>1315.112657573492</v>
+        <v>1152.150506321614</v>
       </c>
       <c r="E2" t="n">
-        <v>929.3244049752477</v>
+        <v>766.3622537233697</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>355.3763489337621</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4361,19 +4361,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883007</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539436</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W2" t="n">
-        <v>2741.012457539436</v>
+        <v>2656.117893908709</v>
       </c>
       <c r="X2" t="n">
-        <v>2367.546699278356</v>
+        <v>2656.117893908709</v>
       </c>
       <c r="Y2" t="n">
-        <v>1977.407367302545</v>
+        <v>2265.978561932898</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686077</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080131</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986305</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218342</v>
+        <v>256.564501884041</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218342</v>
+        <v>87.62831895613405</v>
       </c>
       <c r="D4" t="n">
         <v>66.51211643218342</v>
@@ -4513,25 +4513,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>838.6033255730482</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>838.6033255730482</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>838.6033255730482</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>583.9188373671614</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W4" t="n">
-        <v>294.5016673302007</v>
+        <v>666.202517612298</v>
       </c>
       <c r="X4" t="n">
-        <v>66.51211643218342</v>
+        <v>438.2129667142807</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.51211643218342</v>
+        <v>438.2129667142807</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1642.972675199008</v>
+        <v>1032.061124352531</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.010158258596</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="D5" t="n">
-        <v>915.744459651846</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E5" t="n">
-        <v>529.9562070536017</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>523.0107063043982</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4568,7 +4568,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.03827352421</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.57251526313</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y5" t="n">
-        <v>2029.57251526313</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>310.7277411117484</v>
+        <v>409.7032203507503</v>
       </c>
       <c r="C7" t="n">
-        <v>310.7277411117484</v>
+        <v>240.7670374228434</v>
       </c>
       <c r="D7" t="n">
-        <v>310.7277411117484</v>
+        <v>240.7670374228434</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4747,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>417.6040489720652</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U7" t="n">
-        <v>417.6040489720652</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V7" t="n">
-        <v>310.7277411117484</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W7" t="n">
-        <v>310.7277411117484</v>
+        <v>409.7032203507503</v>
       </c>
       <c r="X7" t="n">
-        <v>310.7277411117484</v>
+        <v>409.7032203507503</v>
       </c>
       <c r="Y7" t="n">
-        <v>310.7277411117484</v>
+        <v>409.7032203507503</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2126.729101932994</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F8" t="n">
         <v>779.1681669784198</v>
@@ -4796,25 +4796,25 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4823,31 +4823,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>2977.604251783195</v>
       </c>
       <c r="V8" t="n">
-        <v>2866.09759726723</v>
+        <v>2646.541364439624</v>
       </c>
       <c r="W8" t="n">
-        <v>2513.328941997116</v>
+        <v>2293.77270916951</v>
       </c>
       <c r="X8" t="n">
-        <v>2513.328941997116</v>
+        <v>1920.30695090843</v>
       </c>
       <c r="Y8" t="n">
-        <v>2513.328941997116</v>
+        <v>1530.167618932618</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,40 +4887,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>223.6433230382945</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="C10" t="n">
-        <v>223.6433230382945</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="D10" t="n">
-        <v>223.6433230382945</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E10" t="n">
-        <v>223.6433230382945</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>699.1203903877115</v>
+        <v>915.446538193779</v>
       </c>
       <c r="U10" t="n">
-        <v>699.1203903877115</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="V10" t="n">
-        <v>444.4359021818246</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="W10" t="n">
-        <v>444.4359021818246</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="X10" t="n">
-        <v>444.4359021818246</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="Y10" t="n">
-        <v>223.6433230382945</v>
+        <v>626.3436713194226</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,25 +5051,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>150.8995423128888</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>1023.721406539404</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>854.7852236114971</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>704.6685841991614</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>556.7554906167683</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>409.8655431188579</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>242.6694438337378</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>1205.369871369644</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,52 +5264,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>221.3431781811715</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578588</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000569</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854705</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854705</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817744</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="17">
@@ -5504,58 +5504,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438176</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>705.9324428257312</v>
+        <v>985.7836617409695</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>816.8474788130626</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W19" t="n">
-        <v>1336.363037697518</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X19" t="n">
-        <v>1108.373486799501</v>
+        <v>1388.224705714739</v>
       </c>
       <c r="Y19" t="n">
-        <v>887.5809076559709</v>
+        <v>1167.432126571209</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,7 +5762,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1804.131916132773</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.6905094135296</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C22" t="n">
-        <v>700.7543264856228</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>446.9048623224652</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>300.0149148245548</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>300.0149148245548</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>158.3030836667529</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V22" t="n">
-        <v>1789.538274322277</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.121104285317</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.131553387299</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.338974243769</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="23">
@@ -5966,73 +5966,73 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K24" t="n">
-        <v>484.8243144841095</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>980.1499206998682</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1577.52840832642</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.96527192868</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.96527192868</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263199</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W25" t="n">
-        <v>1479.814952498107</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X25" t="n">
-        <v>1251.82540160009</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.03282245656</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6224,19 +6224,19 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>409.1360811687896</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>904.4616873845483</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C28" t="n">
-        <v>580.8993044876688</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D28" t="n">
-        <v>430.7826650753331</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>446.9048623224643</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>300.0149148245539</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6549,19 +6549,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>835.5837926935558</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C31" t="n">
-        <v>835.5837926935558</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D31" t="n">
-        <v>685.46715328122</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E31" t="n">
-        <v>537.5540596988269</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>390.6641122009165</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>223.4680129157965</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1755.431557602304</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1466.014387565343</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X31" t="n">
-        <v>1238.024836667326</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y31" t="n">
-        <v>1017.232257523796</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6695,31 +6695,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6740,10 +6740,10 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>866.4638174991042</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>697.5276345711973</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797186</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1565.519003264322</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1276.101833227361</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1048.112282329344</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6932,31 +6932,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6974,13 +6974,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7020,22 +7020,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>847.644273983533</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
         <v>402.7245934908938</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2399.970196900127</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2217.115362555031</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1997.513897577973</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1708.43867092217</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1708.43867092217</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1419.02150088521</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7148,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6918836311989</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>781.8178837532264</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408906</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.3403484614387</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7391,46 +7391,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7637,37 +7637,37 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,7 +7722,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7731,22 +7731,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7819,34 +7819,34 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>64.28417075992851</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>166.5230652498165</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,16 +22750,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>108.3081818887566</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>74.1962961868811</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>221.2652607547083</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23662,10 +23662,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>114.1584408891638</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>181.4067325814621</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>111.7546635373312</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,19 +23938,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>190.1580536648033</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>17.42427990597229</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>171.2522535850787</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -24418,19 +24418,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>179.3544845744806</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>84.77391660561992</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>101.6825818796765</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24649,7 +24649,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>11.93987647707755</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,22 +24883,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>221.2652607547083</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>24.63391537253447</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>64.12421452922595</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>19.8522888967897</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,13 +25369,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>147.571561219435</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>10.85445046951719</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-3.197442310920451e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26314,16 +26314,16 @@
         <v>251542.9259350416</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="E2" t="n">
-        <v>282501.3098915021</v>
+        <v>282501.3098915023</v>
       </c>
       <c r="F2" t="n">
-        <v>282501.3098915021</v>
+        <v>282501.3098915023</v>
       </c>
       <c r="G2" t="n">
         <v>282501.3098915022</v>
@@ -26332,7 +26332,7 @@
         <v>282501.3098915021</v>
       </c>
       <c r="I2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="J2" t="n">
         <v>282501.3098915022</v>
@@ -26341,10 +26341,10 @@
         <v>282501.3098915021</v>
       </c>
       <c r="L2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="M2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="N2" t="n">
         <v>282501.3098915022</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35180.04910159842</v>
+        <v>35180.04910159831</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26430,16 +26430,16 @@
         <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="H4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186741</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.69604186737</v>
       </c>
       <c r="K4" t="n">
         <v>14826.69604186736</v>
@@ -26448,16 +26448,16 @@
         <v>14826.6960418674</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186741</v>
       </c>
       <c r="N4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
-        <v>22817.55530496085</v>
+        <v>22817.55530496083</v>
       </c>
       <c r="P4" t="n">
-        <v>22817.55530496082</v>
+        <v>22817.55530496083</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1220315.809455543</v>
+        <v>-1220571.678694953</v>
       </c>
       <c r="C6" t="n">
-        <v>85833.93478705354</v>
+        <v>85833.93478705343</v>
       </c>
       <c r="D6" t="n">
-        <v>85833.93478705344</v>
+        <v>85833.93478705335</v>
       </c>
       <c r="E6" t="n">
-        <v>-158860.3777816273</v>
+        <v>-158895.1157070633</v>
       </c>
       <c r="F6" t="n">
-        <v>166552.0840257276</v>
+        <v>166517.3461002921</v>
       </c>
       <c r="G6" t="n">
-        <v>166552.0840257277</v>
+        <v>166517.3461002921</v>
       </c>
       <c r="H6" t="n">
-        <v>166552.0840257276</v>
+        <v>166517.3461002919</v>
       </c>
       <c r="I6" t="n">
-        <v>166552.0840257278</v>
+        <v>166517.3461002921</v>
       </c>
       <c r="J6" t="n">
-        <v>-50979.11837154976</v>
+        <v>-51013.8562969855</v>
       </c>
       <c r="K6" t="n">
-        <v>166552.0840257276</v>
+        <v>166517.3461002919</v>
       </c>
       <c r="L6" t="n">
-        <v>166552.0840257278</v>
+        <v>166517.346100292</v>
       </c>
       <c r="M6" t="n">
-        <v>81497.05609021592</v>
+        <v>81462.31816478002</v>
       </c>
       <c r="N6" t="n">
-        <v>166552.0840257277</v>
+        <v>166517.346100292</v>
       </c>
       <c r="O6" t="n">
         <v>141955.2302999912</v>
       </c>
       <c r="P6" t="n">
-        <v>161382.9482936231</v>
+        <v>161382.948293623</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,16 +26793,16 @@
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>258.2213701248518</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>14.20017876409156</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27540,22 +27540,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7104325195012</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27616,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>163.3618394852751</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>295.1728158402072</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>139.947399124844</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,10 +27831,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>146.3300985421143</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>174.6770236006356</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>219.5793497589816</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,19 +28017,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>134.616168397202</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>214.1628863280074</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28539,7 +28539,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>-1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-7.144468577784776e-14</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>9.496150991986756e-13</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>184.4971006716333</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>266.6561007250657</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>583.1096135868578</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>240.4469701760392</v>
+        <v>164.2853229338202</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>198.5607970756955</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>381.6404378718165</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>171.0290152085043</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>303.4024373464761</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>399.0581126127094</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33497,37 +33497,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,37 +33734,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,37 +33971,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>614.59004755871</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175693</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,37 +34208,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>186.6878763515707</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,37 +34445,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>57.65947400496658</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>128.8146617507067</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>440.9755796648395</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>101.892590396165</v>
+        <v>25.73094315394598</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>55.96455263125101</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>243.7989988974575</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>25.34951124454038</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>165.5609983721171</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>265.0837051983791</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37233,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>101.892590396165</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37470,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>471.9938031142656</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37707,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>44.0916319071262</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38181,19 +38181,19 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
